--- a/DEP Excel Ribbon/Resources/Ingram DEP Enrol.xlsx
+++ b/DEP Excel Ribbon/Resources/Ingram DEP Enrol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mklefass\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1AA86C6D-D55C-4B97-A9DC-58604CCC032B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E74B8-3A17-49CB-8725-58BCA0865DC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="16656" windowHeight="14784" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="454" windowWidth="16654" windowHeight="14786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Please fill out" sheetId="5" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>0844-6928712</t>
   </si>
   <si>
-    <t>DG-EU-UK_apple_DEP_Requests@insight.com</t>
+    <t>Duncan.Chapman@insight.com; Jenni.Ings@insight.com</t>
   </si>
 </sst>
 </file>
@@ -434,12 +434,12 @@
     <xf numFmtId="166" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -756,23 +756,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.4609375" customWidth="1"/>
+    <col min="5" max="5" width="38.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.3046875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="25"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -782,7 +782,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -790,13 +790,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -804,7 +804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -820,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -831,7 +831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -842,14 +842,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="18"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15" t="s">
         <v>18</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="C12" s="21"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
@@ -865,41 +865,41 @@
       <c r="C13" s="21"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="17"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="6"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="I22" s="11"/>
     </row>
   </sheetData>
@@ -907,7 +907,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId1" display="DG-EU-UK_apple_DEP_Requests@insight.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -918,190 +918,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" s="22"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" s="22"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="22"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="22"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="22"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="22"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="22"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="22"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" s="22"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" s="22"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" s="22"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" s="22"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" s="22"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" s="22"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" s="22"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" s="22"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" s="22"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="22"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" s="22"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" s="22"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" s="22"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" s="22"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" s="22"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" s="20"/>
     </row>
   </sheetData>
